--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_140.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -528,675 +534,648 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:08.660000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
+          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:38.620000', '0:00:44.060000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619), (153.617981, 161.988775)]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.24882, 38.911405), (60.180884, 68.841927)]</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.280000', '0:00:38')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[('0:00:20.420000', '0:00:23.500000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.675</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.6, 33.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.58, 50.04)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
